--- a/Templates/Шаблон для загрузки персон в DirectumRX.xlsx
+++ b/Templates/Шаблон для загрузки персон в DirectumRX.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkDirectum\Tasks\old\TemplatesForMain\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFE4D0-7244-415E-BFF9-D1B47AE7EC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Персоны" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Персоны!$A$1:$Q$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Персоны!$A$1:$R$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Токмурзин Павел  (Tokmurzin_PV)</author>
     <author>Попова Елена  (Popova_EI)</author>
     <author>Зорина Елена (Zorina_EV)</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2" shapeId="0">
+    <comment ref="O1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="2" shapeId="0">
+    <comment ref="P1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ИНН</t>
   </si>
@@ -192,12 +193,15 @@
   </si>
   <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>ИД во внешней системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -316,70 +320,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,38 +732,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="63.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14" max="15" width="32.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="39.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="18" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="18" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="31.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="57.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="63.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="32.453125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="32.453125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="21.7265625" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -807,17 +815,20 @@
       <c r="Q1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -834,9 +845,10 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -853,9 +865,10 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -872,9 +885,10 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -891,9 +905,10 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -910,9 +925,10 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -929,9 +945,10 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -948,9 +965,10 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -967,9 +985,10 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -986,9 +1005,10 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1005,9 +1025,10 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1024,9 +1045,10 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1043,9 +1065,10 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1062,9 +1085,10 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1081,9 +1105,10 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1100,9 +1125,10 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1119,9 +1145,10 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1138,9 +1165,10 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1157,9 +1185,10 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1176,9 +1205,10 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1195,9 +1225,10 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1214,9 +1245,10 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1233,9 +1265,10 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1252,9 +1285,10 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="19"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1271,9 +1305,10 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="16"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1290,9 +1325,10 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="19"/>
+      <c r="R26" s="16"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1309,9 +1345,10 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1328,9 +1365,10 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="19"/>
+      <c r="R28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1347,9 +1385,10 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="16"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="19"/>
+      <c r="R29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1366,9 +1405,10 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="10"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="19"/>
+      <c r="R30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1385,9 +1425,10 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="10"/>
-      <c r="Q31" s="16"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="19"/>
+      <c r="R31" s="16"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1404,9 +1445,10 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="19"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1423,9 +1465,10 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="19"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1442,9 +1485,10 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="16"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="19"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1461,9 +1505,10 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="16"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="19"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1480,9 +1525,10 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="10"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="19"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1499,9 +1545,10 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="19"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1518,9 +1565,10 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="16"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="19"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1537,9 +1585,10 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="16"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="19"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1556,9 +1605,10 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="16"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q40" s="19"/>
+      <c r="R40" s="16"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1575,9 +1625,10 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="19"/>
+      <c r="R41" s="16"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1594,9 +1645,10 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="16"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q42" s="19"/>
+      <c r="R42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1613,9 +1665,10 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="16"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="19"/>
+      <c r="R43" s="16"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1632,9 +1685,10 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q44" s="19"/>
+      <c r="R44" s="16"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1651,9 +1705,10 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="19"/>
+      <c r="R45" s="16"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1670,9 +1725,10 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q46" s="19"/>
+      <c r="R46" s="16"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1689,9 +1745,10 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="10"/>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="19"/>
+      <c r="R47" s="16"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1708,9 +1765,10 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q48" s="19"/>
+      <c r="R48" s="16"/>
+    </row>
+    <row r="49" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1727,9 +1785,10 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="16"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q49" s="19"/>
+      <c r="R49" s="16"/>
+    </row>
+    <row r="50" spans="1:18" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1746,7 +1805,8 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="16"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
